--- a/project_implementation/csvs/50m good for uni b/uni_b_50m_k=5/k_ates.xlsx
+++ b/project_implementation/csvs/50m good for uni b/uni_b_50m_k=5/k_ates.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\uni_b_50m_k=5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\50m good for uni b\uni_b_50m_k=5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6FAE9E73-8322-417C-AD92-93E9063694E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D6684-9343-44BC-97E2-E04622028E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_ates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2518,7 +2531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3353,11 +3366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H834"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="H834" sqref="H834"/>
+    <sheetView tabSelected="1" topLeftCell="A825" workbookViewId="0">
+      <selection activeCell="I834" sqref="I834:I842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23306,10 +23319,220 @@
         <v>6.9500850700927703</v>
       </c>
     </row>
-    <row r="834" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G834">
+        <v>1</v>
+      </c>
       <c r="H834">
+        <f>COUNTIF(H1:H831,"&lt;=1")*100/COUNT(H1:H831)</f>
+        <v>0.84235860409145613</v>
+      </c>
+      <c r="I834">
+        <f>COUNTIF(H1:H831,"&lt;=1")</f>
+        <v>7</v>
+      </c>
+      <c r="J834">
+        <v>831</v>
+      </c>
+      <c r="K834">
+        <f>I834*100/J834</f>
+        <v>0.84235860409145613</v>
+      </c>
+      <c r="L834">
+        <f>ROUND(H834,2)</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="835" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G835">
+        <v>2</v>
+      </c>
+      <c r="H835">
+        <f>COUNTIF(H1:H831,"&lt;=2")*100/COUNT(H1:H831)</f>
+        <v>11.672683513838749</v>
+      </c>
+      <c r="I835">
+        <f>COUNTIF(H1:H831,"&lt;=2")</f>
+        <v>97</v>
+      </c>
+      <c r="J835">
+        <v>831</v>
+      </c>
+      <c r="K835">
+        <f t="shared" ref="K835:K842" si="13">I835*100/J835</f>
+        <v>11.672683513838749</v>
+      </c>
+      <c r="L835">
+        <f t="shared" ref="L835:L842" si="14">ROUND(H835,2)</f>
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="836" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G836">
+        <v>3</v>
+      </c>
+      <c r="H836">
+        <f>COUNTIF(H1:H831,"&lt;=3")*100/COUNT(H1:H831)</f>
+        <v>23.94705174488568</v>
+      </c>
+      <c r="I836">
+        <f>COUNTIF(H1:H831,"&lt;=3")</f>
+        <v>199</v>
+      </c>
+      <c r="J836">
+        <v>831</v>
+      </c>
+      <c r="K836">
+        <f t="shared" si="13"/>
+        <v>23.94705174488568</v>
+      </c>
+      <c r="L836">
+        <f t="shared" si="14"/>
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="837" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G837">
+        <v>5</v>
+      </c>
+      <c r="H837">
+        <f>COUNTIF(H1:H831,"&lt;=5")*100/COUNT(H1:H831)</f>
+        <v>49.578820697954271</v>
+      </c>
+      <c r="I837">
+        <f>COUNTIF(H1:H831,"&lt;=5")</f>
+        <v>412</v>
+      </c>
+      <c r="J837">
+        <v>831</v>
+      </c>
+      <c r="K837">
+        <f t="shared" si="13"/>
+        <v>49.578820697954271</v>
+      </c>
+      <c r="L837">
+        <f t="shared" si="14"/>
+        <v>49.58</v>
+      </c>
+    </row>
+    <row r="838" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G838">
+        <v>7</v>
+      </c>
+      <c r="H838">
+        <f>COUNTIF(H1:H831,"&lt;=7")*100/COUNT(H1:H831)</f>
+        <v>61.973525872442842</v>
+      </c>
+      <c r="I838">
+        <f>COUNTIF(H1:H831,"&lt;=7")</f>
+        <v>515</v>
+      </c>
+      <c r="J838">
+        <v>831</v>
+      </c>
+      <c r="K838">
+        <f t="shared" si="13"/>
+        <v>61.973525872442842</v>
+      </c>
+      <c r="L838">
+        <f t="shared" si="14"/>
+        <v>61.97</v>
+      </c>
+    </row>
+    <row r="839" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G839">
+        <v>10</v>
+      </c>
+      <c r="H839">
+        <f>COUNTIF(H1:H831,"&lt;=10")*100/COUNT(H1:H831)</f>
+        <v>72.322503008423581</v>
+      </c>
+      <c r="I839">
+        <f>COUNTIF(H1:H831,"&lt;=10")</f>
+        <v>601</v>
+      </c>
+      <c r="J839">
+        <v>831</v>
+      </c>
+      <c r="K839">
+        <f t="shared" si="13"/>
+        <v>72.322503008423581</v>
+      </c>
+      <c r="L839">
+        <f t="shared" si="14"/>
+        <v>72.319999999999993</v>
+      </c>
+    </row>
+    <row r="840" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G840">
+        <v>13</v>
+      </c>
+      <c r="H840">
         <f>COUNTIF(H1:H831,"&lt;=13")*100/COUNT(H1:H831)</f>
         <v>77.978339350180505</v>
+      </c>
+      <c r="I840">
+        <f>COUNTIF(H1:H831,"&lt;=13")</f>
+        <v>648</v>
+      </c>
+      <c r="J840">
+        <v>831</v>
+      </c>
+      <c r="K840">
+        <f t="shared" si="13"/>
+        <v>77.978339350180505</v>
+      </c>
+      <c r="L840">
+        <f t="shared" si="14"/>
+        <v>77.98</v>
+      </c>
+    </row>
+    <row r="841" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G841">
+        <v>15</v>
+      </c>
+      <c r="H841">
+        <f>COUNTIF(H1:H831,"&lt;=15")*100/COUNT(H1:H831)</f>
+        <v>81.468110709987968</v>
+      </c>
+      <c r="I841">
+        <f>COUNTIF(H1:H831,"&lt;=15")</f>
+        <v>677</v>
+      </c>
+      <c r="J841">
+        <v>831</v>
+      </c>
+      <c r="K841">
+        <f t="shared" si="13"/>
+        <v>81.468110709987968</v>
+      </c>
+      <c r="L841">
+        <f t="shared" si="14"/>
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="842" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G842">
+        <v>17</v>
+      </c>
+      <c r="H842">
+        <f>COUNTIF(H1:H831,"&lt;=17")*100/COUNT(H1:H831)</f>
+        <v>83.032490974729242</v>
+      </c>
+      <c r="I842">
+        <f>COUNTIF(H1:H831,"&lt;=17")</f>
+        <v>690</v>
+      </c>
+      <c r="J842">
+        <v>831</v>
+      </c>
+      <c r="K842">
+        <f t="shared" si="13"/>
+        <v>83.032490974729242</v>
+      </c>
+      <c r="L842">
+        <f t="shared" si="14"/>
+        <v>83.03</v>
       </c>
     </row>
   </sheetData>
